--- a/TPRM Questionnaire.xlsx
+++ b/TPRM Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Desktop\GRC Mastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB6531-3DDD-465A-B05D-8FC6B5A1943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC593EE5-4FBC-4ED0-B7CC-CFA4B2E293C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EA9B85E-04D9-C24A-9DF5-F39691A46415}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Describe the service that you provide to Oscorp</t>
-  </si>
-  <si>
     <t>Enter your name, address, and contanct details</t>
   </si>
   <si>
@@ -98,15 +95,6 @@
     <t>Do you have Data Loss Protection (DLP) capability in place?</t>
   </si>
   <si>
-    <t>We provide a SaaS solution called "Horizon X". This is a SaaS application used to provide Data Analysis service for Scientific Research purposes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The application handles confidential data. The data is intellectual property data that belongs to Oscorp. The database used in the backend is Oracle Database. The database encrypts the data by default.  </t>
-  </si>
-  <si>
-    <t>Horizon Labs is a startup, we still don't follow cyber security frameworks</t>
-  </si>
-  <si>
     <t>We don't have a vulnerability scanner but we install regular updates to our windows servers</t>
   </si>
   <si>
@@ -116,10 +104,6 @@
     <t>Our IT team deals with all IT issues</t>
   </si>
   <si>
-    <t>Peter Parker,IT Manager at Horizon Labs. Address: 20 Ingram Street, Queens, New York. 
-Email: peter.parket@horizonlabs.com</t>
-  </si>
-  <si>
     <t>The IT team manages all incidents</t>
   </si>
   <si>
@@ -141,18 +125,9 @@
     <t>This immediately stands out as serious risk.</t>
   </si>
   <si>
-    <t>So Horizon Labs does not have cybersecurity team.</t>
-  </si>
-  <si>
     <t>Yes, but this should be a regular occurence</t>
   </si>
   <si>
-    <t>This leaves Horizon Labs open and vulnerable to damage done by disgruntled employees and insider threats</t>
-  </si>
-  <si>
-    <t>Again, Horizon Labs does not have any cybersecurity team.</t>
-  </si>
-  <si>
     <t>This is a risk</t>
   </si>
   <si>
@@ -160,6 +135,31 @@
   </si>
   <si>
     <t>This stands out as a risk factor.</t>
+  </si>
+  <si>
+    <t>Describe the service that you provide to Synveta</t>
+  </si>
+  <si>
+    <t>This leaves the company open and vulnerable to damage done by disgruntled employees and insider threats</t>
+  </si>
+  <si>
+    <t>Mark Wayne,IT Manager at Zynilo Labs. Address: 13 Sesame Street, Cairns, Queensland, Australia. 
+Email: mark.wayne@zynilolabs.com</t>
+  </si>
+  <si>
+    <t>We provide a SaaS solution called "Zynilo X". This is a SaaS application used to provide Data Analysis service for Scientific Research purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application handles confidential data. The data is intellectual property data that belongs to Synveta. The database used in the backend is Oracle Database. The database encrypts the data by default.  </t>
+  </si>
+  <si>
+    <t>Zynilo Labs is a startup, we still don't follow cyber security frameworks</t>
+  </si>
+  <si>
+    <t>Again, Zynilo Labs does not have any cybersecurity team.</t>
+  </si>
+  <si>
+    <t>So Zynilo Labs does not have cybersecurity team.</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="49.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -692,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -704,10 +704,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -716,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -744,13 +744,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -758,13 +758,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -772,13 +772,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -786,13 +786,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -800,13 +800,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,13 +814,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -828,13 +828,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -842,13 +842,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -856,13 +856,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
